--- a/Price_Tracker.xlsx
+++ b/Price_Tracker.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C531"/>
+  <dimension ref="A1:C557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7328,6 +7328,344 @@
         </is>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B532" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>2023-04-28 12:16:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B533" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>2023-04-28 12:32:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B534" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>2023-04-28 12:49:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B535" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>2023-04-28 13:06:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B536" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>2023-04-28 13:23:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B537" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>2023-04-28 13:39:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B538" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>2023-04-28 13:56:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B539" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>2023-04-28 14:13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B540" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>2023-04-28 14:29:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B541" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>2023-04-28 14:46:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B542" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>2023-04-28 15:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B543" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>2023-04-28 15:20:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B544" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>2023-04-28 15:36:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B545" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>2023-04-28 15:53:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B546" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>2023-04-28 16:10:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B547" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>2023-04-28 16:26:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B548" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>2023-04-28 16:43:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B549" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>2023-04-28 17:00:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B550" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>2023-04-28 17:17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B551" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>2023-04-28 17:33:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B552" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>2023-04-28 17:50:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B553" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>2023-04-28 18:07:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B554" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>2023-04-28 18:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B555" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>2023-04-28 18:40:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B556" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>2023-04-28 18:42:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B557" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>2023-04-28 19:04:16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Price_Tracker.xlsx
+++ b/Price_Tracker.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C557"/>
+  <dimension ref="A1:C558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7666,6 +7666,19 @@
         </is>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>14930</v>
+      </c>
+      <c r="B558" t="n">
+        <v>14894</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>2023-04-28 19:21:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
